--- a/assignstudentsSchedule.xlsx
+++ b/assignstudentsSchedule.xlsx
@@ -1328,7 +1328,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
